--- a/data/input/absenteeism_data_15.xlsx
+++ b/data/input/absenteeism_data_15.xlsx
@@ -476,248 +476,248 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8825</v>
+        <v>39760</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juan da Costa</t>
+          <t>Luiz Henrique Araújo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>5252.81</v>
+        <v>9192.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33782</v>
+        <v>83447</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emanuella Gomes</t>
+          <t>Agatha Nunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>4495.54</v>
+        <v>8593.889999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79228</v>
+        <v>72527</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Moreira</t>
+          <t>Maria Souza</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>10771.88</v>
+        <v>6653.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>33867</v>
+        <v>16387</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raul Caldeira</t>
+          <t>Laura Rezende</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>5751.71</v>
+        <v>5064.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6649</v>
+        <v>12013</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luigi das Neves</t>
+          <t>Dr. Thales Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>2940.98</v>
+        <v>3074.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99670</v>
+        <v>89270</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Beatriz Farias</t>
+          <t>Alana Teixeira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>12229.36</v>
+        <v>11193.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66433</v>
+        <v>27292</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Vitória Melo</t>
+          <t>Leonardo Fernandes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45091</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>7595.46</v>
+        <v>8576.92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>81014</v>
+        <v>78594</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Erick Campos</t>
+          <t>Yasmin Costela</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45085</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>10862.22</v>
+        <v>4953.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>93064</v>
+        <v>20003</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana da Conceição</t>
+          <t>Sr. Kevin Viana</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,22 +726,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45103</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>10829.42</v>
+        <v>6413.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89196</v>
+        <v>12761</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Elisa Martins</t>
+          <t>Ana Julia Pereira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>4366.82</v>
+        <v>9319.290000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_15.xlsx
+++ b/data/input/absenteeism_data_15.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39760</v>
+        <v>61958</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Henrique Araújo</t>
+          <t>Sr. João Vitor Barros</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>9192.43</v>
+        <v>11873.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>83447</v>
+        <v>44807</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agatha Nunes</t>
+          <t>Samuel Ribeiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,60 +519,60 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>8593.889999999999</v>
+        <v>10271.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72527</v>
+        <v>62826</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Souza</t>
+          <t>Pedro Lucas Azevedo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>6653.29</v>
+        <v>4164.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16387</v>
+        <v>55791</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laura Rezende</t>
+          <t>Davi Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,24 +584,24 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>5064.33</v>
+        <v>4485.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12013</v>
+        <v>55703</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Thales Carvalho</t>
+          <t>Bruna Porto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -613,24 +613,24 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>3074.97</v>
+        <v>5870.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89270</v>
+        <v>8007</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alana Teixeira</t>
+          <t>Sofia Barbosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,114 +639,114 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>11193.01</v>
+        <v>10371.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27292</v>
+        <v>25750</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leonardo Fernandes</t>
+          <t>Agatha Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>8576.92</v>
+        <v>9323.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78594</v>
+        <v>69783</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yasmin Costela</t>
+          <t>Ana Laura Aragão</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>4953.56</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20003</v>
+        <v>50311</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Kevin Viana</t>
+          <t>Rafaela Novaes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>6413.68</v>
+        <v>9288.530000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12761</v>
+        <v>26622</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Julia Pereira</t>
+          <t>Sra. Sofia da Mota</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>9319.290000000001</v>
+        <v>9742.129999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_15.xlsx
+++ b/data/input/absenteeism_data_15.xlsx
@@ -476,127 +476,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61958</v>
+        <v>22967</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. João Vitor Barros</t>
+          <t>Daniel Mendes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>11873.74</v>
+        <v>3668.71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>44807</v>
+        <v>53740</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samuel Ribeiro</t>
+          <t>Ryan Silveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>10271.22</v>
+        <v>12287.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62826</v>
+        <v>55215</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pedro Lucas Azevedo</t>
+          <t>Maria Teixeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>4164.59</v>
+        <v>4271.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>55791</v>
+        <v>4613</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Davi Cunha</t>
+          <t>Arthur Barbosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>4485.45</v>
+        <v>11942.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>55703</v>
+        <v>2701</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bruna Porto</t>
+          <t>Joana Lopes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>5870.6</v>
+        <v>4393.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8007</v>
+        <v>30434</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sofia Barbosa</t>
+          <t>Dr. Lucas Gabriel Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>10371.15</v>
+        <v>3413.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25750</v>
+        <v>30681</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Agatha Cardoso</t>
+          <t>Heitor da Rosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>9323.99</v>
+        <v>6181.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69783</v>
+        <v>75311</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Laura Aragão</t>
+          <t>Sofia Santos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>9779</v>
+        <v>8850.469999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50311</v>
+        <v>72158</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rafaela Novaes</t>
+          <t>Ana Carolina Martins</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>9288.530000000001</v>
+        <v>7455.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26622</v>
+        <v>51308</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Sofia da Mota</t>
+          <t>Emanuella Vieira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45106</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>9742.129999999999</v>
+        <v>10728.9</v>
       </c>
     </row>
   </sheetData>
